--- a/defintions.xlsx
+++ b/defintions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\Unity Projects\scam-jam-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68F9E72-91E4-4181-80F8-6F2BE03E3259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5F864F-D6E9-44A9-AE5F-418815D713E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="2055" windowWidth="23040" windowHeight="10710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9270" yWindow="2085" windowWidth="23040" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_crap" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="126">
   <si>
     <t>Baseball</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Disco Lamp</t>
   </si>
   <si>
-    <t>You ever stare at one of this while completely baked?</t>
-  </si>
-  <si>
     <t>Fencing Mask</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
     <t>Aka. A mason jar.</t>
   </si>
   <si>
-    <t>Picture Fram with the Stock Photo</t>
-  </si>
-  <si>
     <t>I don't know who these people are. But. I love them like family. *sniff*</t>
   </si>
   <si>
@@ -369,6 +363,42 @@
   </si>
   <si>
     <t>It'll kick-start a meaningful relationship!</t>
+  </si>
+  <si>
+    <t>A Moist Sock</t>
+  </si>
+  <si>
+    <t>The moisture gives it its strength.</t>
+  </si>
+  <si>
+    <t>Rotten Cabbage</t>
+  </si>
+  <si>
+    <t>Mold is good. For you. Not for me...</t>
+  </si>
+  <si>
+    <t>A Random Assortment of Shot Glasses</t>
+  </si>
+  <si>
+    <t>Each cruddy little label has sentimental value. Probably. ...probably not.</t>
+  </si>
+  <si>
+    <t>Orange Peel</t>
+  </si>
+  <si>
+    <t>Zesty!</t>
+  </si>
+  <si>
+    <t>Tooth</t>
+  </si>
+  <si>
+    <t>Picture Frame with the Stock Photo</t>
+  </si>
+  <si>
+    <t>You ever stare at one of these while completely baked?</t>
+  </si>
+  <si>
+    <t>The tooth fairy'll never get this one from me!!</t>
   </si>
 </sst>
 </file>
@@ -1209,16 +1239,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1238,7 +1268,7 @@
         <v>3.5</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1258,7 +1288,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1278,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1298,7 +1328,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1318,7 +1348,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1338,7 +1368,7 @@
         <v>3.67</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1358,7 +1388,7 @@
         <v>9.99</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1378,7 +1408,7 @@
         <v>7.49</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1398,7 +1428,7 @@
         <v>39.99</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1418,7 +1448,7 @@
         <v>4.76</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1438,7 +1468,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1458,7 +1488,7 @@
         <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1478,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1498,7 +1528,7 @@
         <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1518,7 +1548,7 @@
         <v>6.66</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1538,7 +1568,7 @@
         <v>12.12</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1558,7 +1588,7 @@
         <v>69.69</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1578,7 +1608,7 @@
         <v>1.99</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1598,7 +1628,7 @@
         <v>0.79</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1618,7 +1648,7 @@
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1638,7 +1668,7 @@
         <v>29.76</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1649,7 +1679,7 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -1658,7 +1688,7 @@
         <v>3.56</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1666,10 +1696,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
         <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1678,7 +1708,7 @@
         <v>45.21</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1686,10 +1716,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
         <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1698,7 +1728,7 @@
         <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1706,10 +1736,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
         <v>48</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
       </c>
       <c r="D25">
         <v>6</v>
@@ -1718,7 +1748,7 @@
         <v>23.12</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,10 +1756,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
         <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -1738,7 +1768,7 @@
         <v>42.01</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1746,10 +1776,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
         <v>52</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -1758,7 +1788,7 @@
         <v>34.450000000000003</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1766,10 +1796,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
         <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
       </c>
       <c r="D28">
         <v>8</v>
@@ -1778,7 +1808,7 @@
         <v>3.45</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1786,10 +1816,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
         <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>57</v>
       </c>
       <c r="D29">
         <v>9</v>
@@ -1798,7 +1828,7 @@
         <v>45.32</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1806,10 +1836,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
         <v>58</v>
-      </c>
-      <c r="C30" t="s">
-        <v>59</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -1818,7 +1848,7 @@
         <v>45.21</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1826,10 +1856,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
         <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>61</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -1838,7 +1868,7 @@
         <v>3.45</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1846,10 +1876,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
         <v>62</v>
-      </c>
-      <c r="C32" t="s">
-        <v>63</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -1858,7 +1888,7 @@
         <v>5.67</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1866,10 +1896,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -1878,7 +1908,7 @@
         <v>7.89</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1886,10 +1916,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D34">
         <v>9</v>
@@ -1898,7 +1928,7 @@
         <v>76.67</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1906,10 +1936,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1918,7 +1948,107 @@
         <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>3.45</v>
+      </c>
+      <c r="F36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>6.78</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>35.43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2.99</v>
+      </c>
+      <c r="F39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +2060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BA773E-F038-42D1-8437-8DE23E780313}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -1942,7 +2072,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -1956,7 +2086,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1970,7 +2100,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1984,7 +2114,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1998,7 +2128,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>-1</v>
@@ -2012,7 +2142,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>-1</v>
@@ -2026,7 +2156,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>-1</v>
@@ -2040,7 +2170,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2054,7 +2184,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2068,7 +2198,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2082,7 +2212,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2096,7 +2226,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2110,7 +2240,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2124,7 +2254,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2138,7 +2268,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2152,7 +2282,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2166,7 +2296,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17">
         <v>-1</v>
@@ -2180,7 +2310,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2194,7 +2324,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B19">
         <v>-1</v>
@@ -2208,7 +2338,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2222,7 +2352,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21">
         <v>-1</v>
@@ -2236,7 +2366,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2250,7 +2380,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B23">
         <v>-1</v>
@@ -2264,7 +2394,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2278,7 +2408,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B25">
         <v>-1</v>
@@ -2292,7 +2422,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2306,7 +2436,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2320,7 +2450,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2334,7 +2464,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2348,7 +2478,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B30">
         <v>-1</v>
@@ -2362,7 +2492,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2376,7 +2506,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B32">
         <v>-1</v>
@@ -2390,7 +2520,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B33">
         <v>-1</v>
@@ -2404,7 +2534,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2418,7 +2548,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2432,7 +2562,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B36">
         <v>-1</v>
@@ -2446,7 +2576,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2460,7 +2590,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2474,7 +2604,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2488,7 +2618,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2502,7 +2632,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2516,7 +2646,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42">
         <v>-1</v>
@@ -2530,7 +2660,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B43">
         <v>-1</v>
@@ -2544,7 +2674,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2558,7 +2688,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B45">
         <v>-1</v>
